--- a/卖橘子.xlsx
+++ b/卖橘子.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17017" windowHeight="9780"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1018周三" sheetId="1" r:id="rId1"/>
+    <sheet name="1019周四" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>姓名</t>
   </si>
@@ -79,6 +79,45 @@
   </si>
   <si>
     <t>上海市松江区1599弄65号1001室</t>
+  </si>
+  <si>
+    <t>王诗涴</t>
+  </si>
+  <si>
+    <t>广东省深圳市南山区西丽街道壮大工业区龙母二路2栋68号阳光荔林公寓</t>
+  </si>
+  <si>
+    <t>王玉莹</t>
+  </si>
+  <si>
+    <t>广东省深圳市南山区沙河街道汕头街康佳苑1栋</t>
+  </si>
+  <si>
+    <t>王敬娜</t>
+  </si>
+  <si>
+    <t>辽宁省大连市普兰店市太平菜园子街道</t>
+  </si>
+  <si>
+    <t>贺贺</t>
+  </si>
+  <si>
+    <t>上海上海市金山区金山工业区朱行镇运河村6062号</t>
+  </si>
+  <si>
+    <t>百味</t>
+  </si>
+  <si>
+    <t>上海市上海市金山区 亭林镇亭卫公路9712号乾淦工程机械服务中心</t>
+  </si>
+  <si>
+    <t>沈俊超</t>
+  </si>
+  <si>
+    <t>上海松江区泗泾镇 泗砖路351号上海交科松江科创园2号楼6楼</t>
+  </si>
+  <si>
+    <t>吴燕</t>
   </si>
 </sst>
 </file>
@@ -91,14 +130,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,48 +588,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,97 +642,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,13 +1091,13 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="16.3982300884956" customWidth="1"/>
-    <col min="3" max="3" width="59.6106194690265" customWidth="1"/>
+    <col min="2" max="2" width="16.4" customWidth="1"/>
+    <col min="3" max="3" width="59.6083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1211,9 +1243,15 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17704117773</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
@@ -1222,46 +1260,86 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15542557682</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>13898637259</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>18839608422</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13916040867</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>17316493494</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1447,14 +1525,53 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18101811930</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
